--- a/data/05_input/zm.ca19a.xlsx
+++ b/data/05_input/zm.ca19a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/E7F368CA-55ED-4607-8A0F-84F86C83F263/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/25CB8530-C7AB-44EB-8644-5E8F5E9EC8FA/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD8CCA3-0446-7948-8414-302278F1430C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD5874E-7795-8A40-B36D-076A841DB309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8420" yWindow="9440" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>SampleID</t>
   </si>
@@ -79,16 +79,52 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +479,7 @@
     <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +507,19 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -485,8 +530,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
       <c r="H2">
         <v>95964379</v>
@@ -494,10 +539,13 @@
       <c r="I2">
         <v>72</v>
       </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -508,8 +556,8 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3">
         <v>571321741</v>
@@ -517,10 +565,13 @@
       <c r="I3">
         <v>72</v>
       </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -531,8 +582,8 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>18</v>
       </c>
       <c r="H4">
         <v>76811222</v>
@@ -540,10 +591,13 @@
       <c r="I4">
         <v>72</v>
       </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -554,8 +608,8 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
       <c r="H5">
         <v>174903747</v>
@@ -563,10 +617,13 @@
       <c r="I5">
         <v>72</v>
       </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -577,8 +634,8 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
       <c r="H6">
         <v>112555834</v>
@@ -586,10 +643,13 @@
       <c r="I6">
         <v>71</v>
       </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -600,20 +660,24 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
       <c r="H7">
         <v>113684140</v>
       </c>
       <c r="I7">
         <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
     <sortCondition ref="A2:A7"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>